--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="152">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -383,6 +383,96 @@
   </si>
   <si>
     <t>customer/view/customer_id:37869</t>
+  </si>
+  <si>
+    <t>User Settings</t>
+  </si>
+  <si>
+    <t>Zeus News</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Add Message</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Downloads</t>
+  </si>
+  <si>
+    <t>TC_1_12_Number_management_Search_customerForEdit</t>
+  </si>
+  <si>
+    <t>Call Recording Storage 1 year</t>
+  </si>
+  <si>
+    <t>TC_1_53_VIPCustomer_Filter_VIP_Types</t>
+  </si>
+  <si>
+    <t>VIP Customers</t>
+  </si>
+  <si>
+    <t>Colliers International</t>
+  </si>
+  <si>
+    <t>Platinum VIP</t>
+  </si>
+  <si>
+    <t>priyaka</t>
+  </si>
+  <si>
+    <t>@live.com</t>
+  </si>
+  <si>
+    <t>Zeus_QA@vonage.com</t>
+  </si>
+  <si>
+    <t>pAs$w0rd%t3st</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Changed Successfully</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
+  </si>
+  <si>
+    <t>edit successful</t>
+  </si>
+  <si>
+    <t>TestTemplete</t>
+  </si>
+  <si>
+    <t>https://zeus.qa5.vonagenetworks.net/dashboard/view/customer_id:</t>
+  </si>
+  <si>
+    <t>https://zeus.qa6.vonagenetworks.net/dashboard/view/customer_id:</t>
+  </si>
+  <si>
+    <t>https://master-hades.hydra.dev.vonagenetworks.net/dashboard/view/customer_id:</t>
+  </si>
+  <si>
+    <t>Abby Hastings</t>
+  </si>
+  <si>
+    <t>Alvin Walker</t>
+  </si>
+  <si>
+    <t>TC_1_37_EditProjectTasks</t>
+  </si>
+  <si>
+    <t>Project Details:</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -693,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -920,6 +1010,24 @@
       <c r="B15">
         <v>35834</v>
       </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>12345</v>
+      </c>
+      <c r="H15" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
@@ -929,15 +1037,42 @@
         <v>41450</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
         <v>38939</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -945,7 +1080,7 @@
         <v>31589</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -968,39 +1103,99 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20">
         <v>31589</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21">
         <v>35834</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>45</v>
       </c>
       <c r="B22">
         <v>34596</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>46</v>
       </c>
       <c r="B23">
         <v>39342</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1008,7 +1203,7 @@
         <v>29933</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1016,7 +1211,7 @@
         <v>34665</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1024,7 +1219,7 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1032,7 +1227,7 @@
         <v>53410</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1040,7 +1235,7 @@
         <v>900520</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1048,7 +1243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1056,7 +1251,7 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1064,7 +1259,7 @@
         <v>45506</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1350,7 +1545,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -1365,6 +1560,86 @@
       </c>
       <c r="E49" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50">
+        <v>36834</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="156">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -473,6 +473,18 @@
   </si>
   <si>
     <t>@gmail.com</t>
+  </si>
+  <si>
+    <t>Requested Install Date</t>
+  </si>
+  <si>
+    <t>Internal Circuit Add - ORDER SUBMISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Circuit Add - ORDER SUBMISSION � </t>
+  </si>
+  <si>
+    <t>Successfully deleted</t>
   </si>
 </sst>
 </file>
@@ -785,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1028,6 +1040,9 @@
       <c r="H15" t="s">
         <v>129</v>
       </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
@@ -1201,6 +1216,21 @@
       </c>
       <c r="B24">
         <v>29933</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:12">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="183">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -485,6 +485,87 @@
   </si>
   <si>
     <t>Successfully deleted</t>
+  </si>
+  <si>
+    <t>Device Status</t>
+  </si>
+  <si>
+    <t>Monitoring Status</t>
+  </si>
+  <si>
+    <t>Device SNMP / WMI</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>WMI</t>
+  </si>
+  <si>
+    <t>gw1.adji.oak</t>
+  </si>
+  <si>
+    <t>10.252.3.</t>
+  </si>
+  <si>
+    <t>10.10.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Provisioning</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Device Management</t>
+  </si>
+  <si>
+    <t>Pop Regions</t>
+  </si>
+  <si>
+    <t>DB Mail</t>
+  </si>
+  <si>
+    <t>Circuit Profile</t>
+  </si>
+  <si>
+    <t>icore</t>
+  </si>
+  <si>
+    <t>TC_1_70_Admin_Recon_Mac_Mapping</t>
+  </si>
+  <si>
+    <t>Advanced Contact Center - Care Plus Success</t>
+  </si>
+  <si>
+    <t>Recon MAC Product Mapping was successfully deleted</t>
+  </si>
+  <si>
+    <t>Realogy Access Charge</t>
+  </si>
+  <si>
+    <t>TC_1_77_EICB_Queue</t>
+  </si>
+  <si>
+    <t>Service Delivery Approved</t>
+  </si>
+  <si>
+    <t>service-delivery-approved</t>
+  </si>
+  <si>
+    <t>rejected</t>
+  </si>
+  <si>
+    <t>Showing 0 to 0 of 0 entries</t>
   </si>
 </sst>
 </file>
@@ -795,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1052,7 +1133,7 @@
         <v>41450</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1087,7 +1168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1095,7 +1176,7 @@
         <v>31589</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1118,7 +1199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1156,7 +1237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1173,7 +1254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -1190,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1291,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1233,23 +1314,59 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25">
         <v>34665</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>49</v>
       </c>
       <c r="B26">
         <v>35834</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1257,15 +1374,54 @@
         <v>53410</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>51</v>
       </c>
       <c r="B28">
         <v>900520</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" t="s">
+        <v>169</v>
+      </c>
+      <c r="L28" t="s">
+        <v>170</v>
+      </c>
+      <c r="M28" t="s">
+        <v>171</v>
+      </c>
+      <c r="N28" t="s">
+        <v>172</v>
+      </c>
+      <c r="O28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1273,7 +1429,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -1281,20 +1437,41 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>55</v>
       </c>
       <c r="B31">
         <v>45506</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>56</v>
       </c>
       <c r="B32">
         <v>47921</v>
+      </c>
+      <c r="C32">
+        <v>47922</v>
+      </c>
+      <c r="D32">
+        <v>47923</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -1670,6 +1847,34 @@
       </c>
       <c r="E53" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="213">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -566,6 +566,96 @@
   </si>
   <si>
     <t>Showing 0 to 0 of 0 entries</t>
+  </si>
+  <si>
+    <t>International DIDs</t>
+  </si>
+  <si>
+    <t>How to Use</t>
+  </si>
+  <si>
+    <t>Successfully added International Number</t>
+  </si>
+  <si>
+    <t>Failed to add the following number(s). They most likely contained invalid characters</t>
+  </si>
+  <si>
+    <t>Successfully deleted International Number</t>
+  </si>
+  <si>
+    <t>TC_1_82_Verify_International_DIDs_under_Reports</t>
+  </si>
+  <si>
+    <t>Customer Name;International DID;State</t>
+  </si>
+  <si>
+    <t>Not In Billing</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Installing</t>
+  </si>
+  <si>
+    <t>Disconnected-NOT BILLING</t>
+  </si>
+  <si>
+    <t>TC_1_83_Admin_Carriers</t>
+  </si>
+  <si>
+    <t>View All Carrier Accounts</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>test edit</t>
+  </si>
+  <si>
+    <t>Carrier Accounts</t>
+  </si>
+  <si>
+    <t>Carrier Circuit and Pops for New Circuits</t>
+  </si>
+  <si>
+    <t>Circuit Type</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Log Entries</t>
+  </si>
+  <si>
+    <t>show all</t>
+  </si>
+  <si>
+    <t>test Description</t>
+  </si>
+  <si>
+    <t>;Account Number;Description;Bill Day;Active?;Last Invoice</t>
+  </si>
+  <si>
+    <t>TC_1_84_Admin_SalesTool_EnganeeringICB</t>
+  </si>
+  <si>
+    <t>WH EdgeMarc 4552 - 30 Calls, quad T1</t>
+  </si>
+  <si>
+    <t>Auto test</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>TC_1_95_Tasks_Calendar_Page</t>
+  </si>
+  <si>
+    <t>added successfully</t>
+  </si>
+  <si>
+    <t>Premier Basic</t>
   </si>
 </sst>
 </file>
@@ -876,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1436,6 +1526,30 @@
       <c r="B30">
         <v>35834</v>
       </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
@@ -1481,6 +1595,12 @@
       <c r="B33" t="s">
         <v>19</v>
       </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
@@ -1489,6 +1609,12 @@
       <c r="B34" t="s">
         <v>19</v>
       </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
@@ -1752,7 +1878,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -1769,7 +1895,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -1798,7 +1924,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>130</v>
       </c>
@@ -1812,7 +1938,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -1832,7 +1958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -1849,7 +1975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>174</v>
       </c>
@@ -1860,7 +1986,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -1875,6 +2001,110 @@
       </c>
       <c r="E55" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" t="s">
+        <v>197</v>
+      </c>
+      <c r="G57" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57" t="s">
+        <v>199</v>
+      </c>
+      <c r="I57" t="s">
+        <v>200</v>
+      </c>
+      <c r="J57" t="s">
+        <v>201</v>
+      </c>
+      <c r="K57" t="s">
+        <v>202</v>
+      </c>
+      <c r="L57" t="s">
+        <v>203</v>
+      </c>
+      <c r="M57" t="s">
+        <v>74</v>
+      </c>
+      <c r="N57" t="s">
+        <v>204</v>
+      </c>
+      <c r="O57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" t="s">
+        <v>211</v>
+      </c>
+      <c r="G59" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10485"/>
+    <workbookView windowWidth="13500" windowHeight="4980"/>
   </bookViews>
   <sheets>
     <sheet name="QA5" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Master" sheetId="3" r:id="rId3"/>
     <sheet name="Dev" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -115,6 +115,12 @@
     <t>TC_1_10_ExportChildCustomerList</t>
   </si>
   <si>
+    <t>search box</t>
+  </si>
+  <si>
+    <t>customer/view/customer_id:37869</t>
+  </si>
+  <si>
     <t>TC_1_11_VerifyFunctionalitiesOnHomePage</t>
   </si>
   <si>
@@ -124,12 +130,36 @@
     <t>TC_1_18_MacProject</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Call Recording Storage 1 year</t>
+  </si>
+  <si>
+    <t>Requested Install Date</t>
+  </si>
+  <si>
     <t>TC_1_31_CreditReq_Zeus_EngageIP</t>
   </si>
   <si>
     <t>TC_1_32_AgentCreateReassignTicketsfromHelpSpot</t>
   </si>
   <si>
+    <t>priyaka</t>
+  </si>
+  <si>
+    <t>@live.com</t>
+  </si>
+  <si>
+    <t>Zeus_QA@vonage.com</t>
+  </si>
+  <si>
+    <t>pAs$w0rd%t3st</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
     <t>TC_1_35_AddNew_EditProjectDueDate</t>
   </si>
   <si>
@@ -151,30 +181,132 @@
     <t>TC_1_41_Configur_Project_Components</t>
   </si>
   <si>
+    <t>Changed Successfully</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
+  </si>
+  <si>
+    <t>edit successful</t>
+  </si>
+  <si>
+    <t>TestTemplete</t>
+  </si>
+  <si>
+    <t>https://zeus.qa5.vonagenetworks.net/dashboard/view/customer_id:</t>
+  </si>
+  <si>
+    <t>https://zeus.qa6.vonagenetworks.net/dashboard/view/customer_id:</t>
+  </si>
+  <si>
+    <t>https://master-hades.hydra.dev.vonagenetworks.net/dashboard/view/customer_id:</t>
+  </si>
+  <si>
+    <t>Abby Hastings</t>
+  </si>
+  <si>
+    <t>Alvin Walker</t>
+  </si>
+  <si>
     <t>TC_1_52_DIDs_Displayed_Number_Activation</t>
   </si>
   <si>
     <t>TC_1_56_TicketMergeVerification</t>
   </si>
   <si>
+    <t>Search box</t>
+  </si>
+  <si>
     <t>TC_1_58_VerifyUserAbleToViewUsageHistory</t>
   </si>
   <si>
+    <t>@gmail.com</t>
+  </si>
+  <si>
     <t>TC_1_59_Delete_Parent_children_tasks</t>
   </si>
   <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Project Details:</t>
+  </si>
+  <si>
+    <t>Internal Circuit Add - ORDER SUBMISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Circuit Add - ORDER SUBMISSION � </t>
+  </si>
+  <si>
+    <t>Successfully deleted</t>
+  </si>
+  <si>
     <t>TC_1_6_Dashboard_Edit_Device_Status</t>
   </si>
   <si>
+    <t>Device Status</t>
+  </si>
+  <si>
+    <t>Monitoring Status</t>
+  </si>
+  <si>
+    <t>Device SNMP / WMI</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>WMI</t>
+  </si>
+  <si>
     <t>TC_1_64_Verify_Representative_choose_WAN_versionOf_VeloCloud</t>
   </si>
   <si>
+    <t>gw1.adji.oak</t>
+  </si>
+  <si>
+    <t>10.252.3.</t>
+  </si>
+  <si>
+    <t>10.10.</t>
+  </si>
+  <si>
     <t>TC_1_66_Fax_back_Management</t>
   </si>
   <si>
     <t>TC_1_67_VerifyNewInterfacecreatedForPlatformConfigured</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Provisioning</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Device Management</t>
+  </si>
+  <si>
+    <t>Pop Regions</t>
+  </si>
+  <si>
+    <t>DB Mail</t>
+  </si>
+  <si>
+    <t>Circuit Profile</t>
+  </si>
+  <si>
+    <t>icore</t>
+  </si>
+  <si>
     <t>TC_1_69_VerifyUserAbilityToSelectTypeOfCustomer</t>
   </si>
   <si>
@@ -184,18 +316,42 @@
     <t>TC_1_7_CustomerVoiceInterNationalDIDs</t>
   </si>
   <si>
+    <t>International DIDs</t>
+  </si>
+  <si>
+    <t>How to Use</t>
+  </si>
+  <si>
+    <t>Successfully added International Number</t>
+  </si>
+  <si>
+    <t>Failed to add the following number(s). They most likely contained invalid characters</t>
+  </si>
+  <si>
+    <t>Successfully deleted International Number</t>
+  </si>
+  <si>
     <t>TC_1_76_EMAC_price_algorithm</t>
   </si>
   <si>
+    <t>Realogy Access Charge</t>
+  </si>
+  <si>
     <t>TC_1_79_Bulk_Edit</t>
   </si>
   <si>
     <t>TC_1_87_HyperLinks_Log_0n_MAC_Inventory</t>
   </si>
   <si>
+    <t>Inventory</t>
+  </si>
+  <si>
     <t>TC_1_97_SubmitTheReconFix</t>
   </si>
   <si>
+    <t>Premier Basic</t>
+  </si>
+  <si>
     <t>TC_1_98_QuoteGenaration</t>
   </si>
   <si>
@@ -244,9 +400,6 @@
     <t>Priyanka</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>TestFolder</t>
   </si>
   <si>
@@ -268,9 +421,6 @@
     <t>ProjectsDropDown</t>
   </si>
   <si>
-    <t>Projects</t>
-  </si>
-  <si>
     <t>Calendar By VP</t>
   </si>
   <si>
@@ -322,9 +472,6 @@
     <t>Reconciliation1971</t>
   </si>
   <si>
-    <t>Search box</t>
-  </si>
-  <si>
     <t>TC_1_92_Task_Calendar</t>
   </si>
   <si>
@@ -367,6 +514,138 @@
     <t>vic</t>
   </si>
   <si>
+    <t>User Settings</t>
+  </si>
+  <si>
+    <t>Zeus News</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Add Message</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Downloads</t>
+  </si>
+  <si>
+    <t>TC_1_53_VIPCustomer_Filter_VIP_Types</t>
+  </si>
+  <si>
+    <t>VIP Customers</t>
+  </si>
+  <si>
+    <t>Collier</t>
+  </si>
+  <si>
+    <t>Platinum VIP</t>
+  </si>
+  <si>
+    <t>TC_1_37_EditProjectTasks</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>TC_1_12_Number_management_Search_customerForEdit</t>
+  </si>
+  <si>
+    <t>TC_1_70_Admin_Recon_Mac_Mapping</t>
+  </si>
+  <si>
+    <t>Advanced Contact Center - Care Plus Success</t>
+  </si>
+  <si>
+    <t>Recon MAC Product Mapping was successfully deleted</t>
+  </si>
+  <si>
+    <t>TC_1_77_EICB_Queue</t>
+  </si>
+  <si>
+    <t>Service Delivery Approved</t>
+  </si>
+  <si>
+    <t>service-delivery-approved</t>
+  </si>
+  <si>
+    <t>rejected</t>
+  </si>
+  <si>
+    <t>Showing 0 to 0 of 0 entries</t>
+  </si>
+  <si>
+    <t>TC_1_82_Verify_International_DIDs_under_Reports</t>
+  </si>
+  <si>
+    <t>Customer Name;International DID;State</t>
+  </si>
+  <si>
+    <t>Not In Billing</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Installing</t>
+  </si>
+  <si>
+    <t>Disconnected-NOT BILLING</t>
+  </si>
+  <si>
+    <t>TC_1_83_Admin_Carriers</t>
+  </si>
+  <si>
+    <t>View All Carrier Accounts</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>test edit</t>
+  </si>
+  <si>
+    <t>Carrier Accounts</t>
+  </si>
+  <si>
+    <t>Carrier Circuit and Pops for New Circuits</t>
+  </si>
+  <si>
+    <t>Circuit Type</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Log Entries</t>
+  </si>
+  <si>
+    <t>show all</t>
+  </si>
+  <si>
+    <t>test Description</t>
+  </si>
+  <si>
+    <t>;Account Number;Description;Bill Day;Active?;Last Invoice</t>
+  </si>
+  <si>
+    <t>TC_1_84_Admin_SalesTool_EnganeeringICB</t>
+  </si>
+  <si>
+    <t>WH EdgeMarc 4552 - 30 Calls, quad T1</t>
+  </si>
+  <si>
+    <t>Auto test</t>
+  </si>
+  <si>
+    <t>TC_1_95_Tasks_Calendar_Page</t>
+  </si>
+  <si>
+    <t>added successfully</t>
+  </si>
+  <si>
     <t>Billing_contract</t>
   </si>
   <si>
@@ -377,298 +656,29 @@
   </si>
   <si>
     <t>Billing_Inventory</t>
-  </si>
-  <si>
-    <t>search box</t>
-  </si>
-  <si>
-    <t>customer/view/customer_id:37869</t>
-  </si>
-  <si>
-    <t>User Settings</t>
-  </si>
-  <si>
-    <t>Zeus News</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Add Message</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Downloads</t>
-  </si>
-  <si>
-    <t>TC_1_12_Number_management_Search_customerForEdit</t>
-  </si>
-  <si>
-    <t>Call Recording Storage 1 year</t>
-  </si>
-  <si>
-    <t>TC_1_53_VIPCustomer_Filter_VIP_Types</t>
-  </si>
-  <si>
-    <t>VIP Customers</t>
-  </si>
-  <si>
-    <t>Colliers International</t>
-  </si>
-  <si>
-    <t>Platinum VIP</t>
-  </si>
-  <si>
-    <t>priyaka</t>
-  </si>
-  <si>
-    <t>@live.com</t>
-  </si>
-  <si>
-    <t>Zeus_QA@vonage.com</t>
-  </si>
-  <si>
-    <t>pAs$w0rd%t3st</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Changed Successfully</t>
-  </si>
-  <si>
-    <t>Automation Test</t>
-  </si>
-  <si>
-    <t>edit successful</t>
-  </si>
-  <si>
-    <t>TestTemplete</t>
-  </si>
-  <si>
-    <t>https://zeus.qa5.vonagenetworks.net/dashboard/view/customer_id:</t>
-  </si>
-  <si>
-    <t>https://zeus.qa6.vonagenetworks.net/dashboard/view/customer_id:</t>
-  </si>
-  <si>
-    <t>https://master-hades.hydra.dev.vonagenetworks.net/dashboard/view/customer_id:</t>
-  </si>
-  <si>
-    <t>Abby Hastings</t>
-  </si>
-  <si>
-    <t>Alvin Walker</t>
-  </si>
-  <si>
-    <t>TC_1_37_EditProjectTasks</t>
-  </si>
-  <si>
-    <t>Project Details:</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>@gmail.com</t>
-  </si>
-  <si>
-    <t>Requested Install Date</t>
-  </si>
-  <si>
-    <t>Internal Circuit Add - ORDER SUBMISSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Circuit Add - ORDER SUBMISSION � </t>
-  </si>
-  <si>
-    <t>Successfully deleted</t>
-  </si>
-  <si>
-    <t>Device Status</t>
-  </si>
-  <si>
-    <t>Monitoring Status</t>
-  </si>
-  <si>
-    <t>Device SNMP / WMI</t>
-  </si>
-  <si>
-    <t>SNMP</t>
-  </si>
-  <si>
-    <t>WMI</t>
-  </si>
-  <si>
-    <t>gw1.adji.oak</t>
-  </si>
-  <si>
-    <t>10.252.3.</t>
-  </si>
-  <si>
-    <t>10.10.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Provisioning</t>
-  </si>
-  <si>
-    <t>Billing</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>Device Management</t>
-  </si>
-  <si>
-    <t>Pop Regions</t>
-  </si>
-  <si>
-    <t>DB Mail</t>
-  </si>
-  <si>
-    <t>Circuit Profile</t>
-  </si>
-  <si>
-    <t>icore</t>
-  </si>
-  <si>
-    <t>TC_1_70_Admin_Recon_Mac_Mapping</t>
-  </si>
-  <si>
-    <t>Advanced Contact Center - Care Plus Success</t>
-  </si>
-  <si>
-    <t>Recon MAC Product Mapping was successfully deleted</t>
-  </si>
-  <si>
-    <t>Realogy Access Charge</t>
-  </si>
-  <si>
-    <t>TC_1_77_EICB_Queue</t>
-  </si>
-  <si>
-    <t>Service Delivery Approved</t>
-  </si>
-  <si>
-    <t>service-delivery-approved</t>
-  </si>
-  <si>
-    <t>rejected</t>
-  </si>
-  <si>
-    <t>Showing 0 to 0 of 0 entries</t>
-  </si>
-  <si>
-    <t>International DIDs</t>
-  </si>
-  <si>
-    <t>How to Use</t>
-  </si>
-  <si>
-    <t>Successfully added International Number</t>
-  </si>
-  <si>
-    <t>Failed to add the following number(s). They most likely contained invalid characters</t>
-  </si>
-  <si>
-    <t>Successfully deleted International Number</t>
-  </si>
-  <si>
-    <t>TC_1_82_Verify_International_DIDs_under_Reports</t>
-  </si>
-  <si>
-    <t>Customer Name;International DID;State</t>
-  </si>
-  <si>
-    <t>Not In Billing</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Installing</t>
-  </si>
-  <si>
-    <t>Disconnected-NOT BILLING</t>
-  </si>
-  <si>
-    <t>TC_1_83_Admin_Carriers</t>
-  </si>
-  <si>
-    <t>View All Carrier Accounts</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>test edit</t>
-  </si>
-  <si>
-    <t>Carrier Accounts</t>
-  </si>
-  <si>
-    <t>Carrier Circuit and Pops for New Circuits</t>
-  </si>
-  <si>
-    <t>Circuit Type</t>
-  </si>
-  <si>
-    <t>Pop</t>
-  </si>
-  <si>
-    <t>Log Entries</t>
-  </si>
-  <si>
-    <t>show all</t>
-  </si>
-  <si>
-    <t>test Description</t>
-  </si>
-  <si>
-    <t>;Account Number;Description;Bill Day;Active?;Last Invoice</t>
-  </si>
-  <si>
-    <t>TC_1_84_Admin_SalesTool_EnganeeringICB</t>
-  </si>
-  <si>
-    <t>WH EdgeMarc 4552 - 30 Calls, quad T1</t>
-  </si>
-  <si>
-    <t>Auto test</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>TC_1_95_Tasks_Calendar_Page</t>
-  </si>
-  <si>
-    <t>added successfully</t>
-  </si>
-  <si>
-    <t>Premier Basic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -688,28 +698,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -719,106 +744,106 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -830,164 +855,235 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="29.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="20.8518518518518" customWidth="1"/>
+    <col min="4" max="4" width="25.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="21.5740740740741" customWidth="1"/>
+    <col min="6" max="6" width="17.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="10.1388888888889" customWidth="1"/>
+    <col min="8" max="8" width="14.5740740740741" customWidth="1"/>
+    <col min="9" max="9" width="15.287037037037" customWidth="1"/>
+    <col min="10" max="10" width="13.712962962963" customWidth="1"/>
+    <col min="12" max="12" width="17.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1102,7 @@
         <v>40135</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1095,7 +1191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1199,7 @@
         <v>26396</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1111,7 +1207,7 @@
         <v>906503</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1119,7 +1215,7 @@
         <v>34596</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1142,7 +1238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1150,7 +1246,7 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1158,7 +1254,7 @@
         <v>37869</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1167,34 +1263,34 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>36834</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>41450</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>35834</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1203,35 +1299,35 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>12345</v>
       </c>
       <c r="H15" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>41450</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>38939</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1240,35 +1336,35 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>31589</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>34925</v>
@@ -1277,65 +1373,65 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>31589</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
         <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>35834</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1344,15 +1440,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>34596</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1361,15 +1457,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>39342</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1378,41 +1474,41 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>29933</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>34665</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1421,44 +1517,44 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>35834</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>53410</v>
@@ -1466,13 +1562,13 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>900520</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1481,53 +1577,53 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="L28" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="M28" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="N28" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="O28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>35834</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1536,30 +1632,30 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="I30" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="J30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B31">
         <v>45506</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1568,15 +1664,15 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="G31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B32">
         <v>47921</v>
@@ -1588,37 +1684,37 @@
         <v>47923</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B35">
         <v>46941</v>
@@ -1627,65 +1723,65 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B36">
         <v>900488</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B37">
         <v>34596</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="B38">
         <v>41450</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B39">
         <v>1234</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="D40">
         <v>2002000000</v>
@@ -1700,33 +1796,33 @@
         <v>2002000003</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>906502</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E41">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="J41" t="s">
         <v>9</v>
@@ -1735,120 +1831,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="H44">
         <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="J44" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="K44">
         <v>11</v>
       </c>
       <c r="L44" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="M44" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="N44" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="O44" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="P44" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="Q44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="D48">
         <v>7323162848</v>
@@ -1857,16 +1953,16 @@
         <v>379582</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="G48">
         <v>123</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="I48" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="J48">
         <v>7323162848</v>
@@ -1875,12 +1971,12 @@
         <v>15148</v>
       </c>
       <c r="L48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="B49">
         <v>35834</v>
@@ -1892,81 +1988,81 @@
         <v>388835</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B50">
         <v>36834</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="G50" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="H50" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="I50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
+        <v>177</v>
+      </c>
+      <c r="B53">
+        <v>906503</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -1975,153 +2071,155 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E55" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
         <v>188</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>189</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>190</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>191</v>
-      </c>
-      <c r="E56" t="s">
-        <v>192</v>
-      </c>
-      <c r="F56" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" t="s">
+        <v>195</v>
+      </c>
+      <c r="G57" t="s">
         <v>196</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>197</v>
       </c>
-      <c r="G57" t="s">
+      <c r="I57" t="s">
         <v>198</v>
       </c>
-      <c r="H57" t="s">
+      <c r="J57" t="s">
         <v>199</v>
       </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>200</v>
       </c>
-      <c r="J57" t="s">
+      <c r="L57" t="s">
         <v>201</v>
       </c>
-      <c r="K57" t="s">
+      <c r="M57" t="s">
+        <v>126</v>
+      </c>
+      <c r="N57" t="s">
         <v>202</v>
       </c>
-      <c r="L57" t="s">
+      <c r="O57" t="s">
         <v>203</v>
       </c>
-      <c r="M57" t="s">
-        <v>74</v>
-      </c>
-      <c r="N57" t="s">
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>204</v>
       </c>
-      <c r="O57" t="s">
+      <c r="B58" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" t="s">
         <v>206</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
         <v>207</v>
       </c>
-      <c r="C58" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" t="s">
-        <v>211</v>
-      </c>
       <c r="G59" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2134,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2142,7 +2240,7 @@
         <v>40135</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2150,39 +2248,39 @@
         <v>41450</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B4">
         <v>37869</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="B5">
         <v>35560</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="B6">
         <v>41450</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="B7">
         <v>26396</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2190,7 +2288,7 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2198,7 +2296,7 @@
         <v>34596</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2206,7 +2304,7 @@
         <v>31589</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2214,7 +2312,7 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2222,33 +2320,33 @@
         <v>37869</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>36834</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>41450</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>35834</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>41450</v>
@@ -2256,7 +2354,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>38939</v>
@@ -2264,7 +2362,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>31589</v>
@@ -2272,7 +2370,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>34925</v>
@@ -2280,7 +2378,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>31589</v>
@@ -2288,7 +2386,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>35834</v>
@@ -2296,7 +2394,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>34596</v>
@@ -2304,7 +2402,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>39342</v>
@@ -2312,7 +2410,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>29933</v>
@@ -2320,7 +2418,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>34665</v>
@@ -2328,7 +2426,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>35834</v>
@@ -2336,7 +2434,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>53410</v>
@@ -2344,7 +2442,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>900520</v>
@@ -2352,15 +2450,15 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>35834</v>
@@ -2368,7 +2466,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B31">
         <v>45506</v>
@@ -2376,7 +2474,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B32">
         <v>47921</v>
@@ -2384,7 +2482,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -2392,7 +2490,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -2400,7 +2498,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B35">
         <v>34596</v>
@@ -2408,7 +2506,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B36">
         <v>900488</v>
@@ -2416,7 +2514,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B37">
         <v>34596</v>
@@ -2424,7 +2522,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="B38">
         <v>41450</v>
@@ -2432,28 +2530,31 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B39">
         <v>1234</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="64.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2467,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2576,7 @@
         <v>40135</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2483,39 +2584,39 @@
         <v>41450</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B4">
         <v>37869</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="B5">
         <v>35560</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="B6">
         <v>41450</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="B7">
         <v>26396</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2523,7 +2624,7 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2531,7 +2632,7 @@
         <v>36363</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2539,7 +2640,7 @@
         <v>31589</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2547,7 +2648,7 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2555,33 +2656,33 @@
         <v>37869</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>36834</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>41450</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>35834</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>41450</v>
@@ -2589,7 +2690,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>38939</v>
@@ -2597,7 +2698,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>31589</v>
@@ -2605,7 +2706,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>34925</v>
@@ -2613,7 +2714,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>31589</v>
@@ -2621,7 +2722,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>35834</v>
@@ -2629,7 +2730,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>34596</v>
@@ -2637,7 +2738,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>39342</v>
@@ -2645,7 +2746,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>29933</v>
@@ -2653,7 +2754,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>34665</v>
@@ -2661,7 +2762,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>35834</v>
@@ -2669,7 +2770,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>53410</v>
@@ -2677,7 +2778,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>900520</v>
@@ -2685,15 +2786,15 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>35834</v>
@@ -2701,7 +2802,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B31">
         <v>45506</v>
@@ -2709,7 +2810,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B32">
         <v>47921</v>
@@ -2717,7 +2818,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -2725,7 +2826,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -2733,7 +2834,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B35">
         <v>34596</v>
@@ -2741,7 +2842,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B36">
         <v>900488</v>
@@ -2749,7 +2850,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B37">
         <v>34596</v>
@@ -2757,7 +2858,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="B38">
         <v>41450</v>
@@ -2765,26 +2866,29 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B39">
         <v>1234</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2797,7 +2901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2805,7 +2909,7 @@
         <v>40135</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2813,39 +2917,39 @@
         <v>41450</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="B4">
         <v>37869</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="B5">
         <v>35560</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="B6">
         <v>41450</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="B7">
         <v>26396</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2853,7 +2957,7 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2861,7 +2965,7 @@
         <v>34596</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2869,7 +2973,7 @@
         <v>31589</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2877,7 +2981,7 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2885,33 +2989,33 @@
         <v>37869</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>36834</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>41450</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>35834</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>41450</v>
@@ -2919,7 +3023,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>38939</v>
@@ -2927,7 +3031,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>31589</v>
@@ -2935,7 +3039,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>34925</v>
@@ -2943,7 +3047,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>31589</v>
@@ -2951,7 +3055,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>35834</v>
@@ -2959,7 +3063,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>34596</v>
@@ -2967,7 +3071,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B23">
         <v>39342</v>
@@ -2975,7 +3079,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>29933</v>
@@ -2983,7 +3087,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>34665</v>
@@ -2991,7 +3095,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>35834</v>
@@ -2999,7 +3103,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>53410</v>
@@ -3007,7 +3111,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>900520</v>
@@ -3015,15 +3119,15 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>35834</v>
@@ -3031,7 +3135,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B31">
         <v>45506</v>
@@ -3039,7 +3143,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B32">
         <v>47921</v>
@@ -3047,7 +3151,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -3055,7 +3159,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -3063,7 +3167,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="B35">
         <v>34596</v>
@@ -3071,7 +3175,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B36">
         <v>900488</v>
@@ -3079,7 +3183,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B37">
         <v>34596</v>
@@ -3087,7 +3191,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="B38">
         <v>41450</v>
@@ -3095,13 +3199,15 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B39">
         <v>1234</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -538,7 +538,7 @@
     <t>VIP Customers</t>
   </si>
   <si>
-    <t>Collier</t>
+    <t>Colli</t>
   </si>
   <si>
     <t>Platinum VIP</t>
@@ -663,20 +663,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -702,19 +697,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,11 +1029,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -1064,8 +1059,8 @@
   <sheetPr/>
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1324,7 +1319,7 @@
         <v>41</v>
       </c>
       <c r="B17">
-        <v>38939</v>
+        <v>37869</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
